--- a/RTFParse/Main.rvl.xlsx
+++ b/RTFParse/Main.rvl.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="61">
   <si>
     <t>Flow</t>
   </si>
@@ -174,6 +174,30 @@
   </si>
   <si>
     <t>#</t>
+  </si>
+  <si>
+    <t>useWordpad</t>
+  </si>
+  <si>
+    <t>Compare image with Picture</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>Word-generated RTF</t>
+  </si>
+  <si>
+    <t>"WithText and Picture\r\n\r\n\r\nYou see a picture\r\n"</t>
+  </si>
+  <si>
+    <t>"WithText and Picture\r\n\r\n\r\nYou see a picture"</t>
+  </si>
+  <si>
+    <t>"WithText and Picture\r\n \r\n\r\nYou see a picture"</t>
   </si>
 </sst>
 </file>
@@ -194,7 +218,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="205">
+  <borders count="217">
     <border>
       <left/>
       <right/>
@@ -406,11 +430,23 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="205">
+  <cellXfs count="217">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0"/>
@@ -616,6 +652,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="202" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="203" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="204" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="205" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="206" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="207" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="208" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="209" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="210" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="211" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="212" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="213" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="214" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="215" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="216" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -625,7 +673,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H41"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.453125" customWidth="true"/>
@@ -957,7 +1005,7 @@
     </row>
     <row r="21">
       <c r="A21" s="137" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="B21" s="138" t="s">
         <v>3</v>
@@ -981,7 +1029,7 @@
     </row>
     <row r="22">
       <c r="A22" s="145" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="B22" s="146" t="s">
         <v>16</v>
@@ -992,91 +1040,151 @@
         <v>30</v>
       </c>
       <c r="F22" s="150" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="G22" s="151" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H22" s="152"/>
     </row>
     <row r="23">
-      <c r="A23" s="172"/>
+      <c r="A23" s="210"/>
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="173" t="s">
-        <v>52</v>
-      </c>
+      <c r="A24" s="209"/>
       <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" t="s">
+        <v>53</v>
+      </c>
+      <c r="F24" t="s">
+        <v>55</v>
+      </c>
+      <c r="G24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="172"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="173" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
         <v>3</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C26" t="s">
         <v>8</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D26" t="s">
         <v>29</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E26" t="s">
         <v>10</v>
       </c>
-      <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="F26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="174" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" t="s">
+    <row r="27">
+      <c r="A27" s="174" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" t="s">
         <v>16</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E27" t="s">
         <v>30</v>
       </c>
-      <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s">
+      <c r="F27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="176"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="181"/>
-    </row>
     <row r="28">
-      <c r="A28" s="182"/>
+      <c r="A28" s="212"/>
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" s="183"/>
+      <c r="A29" s="211"/>
+      <c r="B29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" t="s">
+        <v>53</v>
+      </c>
+      <c r="F29" t="s">
+        <v>55</v>
+      </c>
+      <c r="G29" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" s="184"/>
+      <c r="A30" s="176"/>
     </row>
     <row r="31">
-      <c r="A31" s="185"/>
+      <c r="A31" s="181"/>
     </row>
     <row r="32">
-      <c r="A32" s="186"/>
+      <c r="A32" s="182"/>
     </row>
     <row r="33">
-      <c r="A33" s="187"/>
+      <c r="A33" s="183"/>
     </row>
     <row r="34">
-      <c r="A34" s="188"/>
+      <c r="A34" s="184"/>
     </row>
     <row r="35">
-      <c r="A35" s="189"/>
+      <c r="A35" s="185"/>
     </row>
     <row r="36">
-      <c r="A36" s="190"/>
+      <c r="A36" s="186"/>
     </row>
     <row r="37">
-      <c r="A37" s="191"/>
+      <c r="A37" s="187"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="188"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="189"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="190"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="191"/>
     </row>
   </sheetData>
 </worksheet>
